--- a/equipment_details.xlsx
+++ b/equipment_details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thermofisher-my.sharepoint.com/personal/sunit_jadeja_thermofisher_com/Documents/Desktop/InstrumentRepop/LSI_Instrument_Repop/SourceData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunitjadeja/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{84A0A013-B534-45B9-8D80-F5F8AACAA7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F35C7E21-180E-413F-B763-A6E0D5511749}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33664633-D7EA-3B4D-B149-3CE98BC7C894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12216" xr2:uid="{BEB573D7-D2EB-42E9-8069-FBCA42C7E423}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{BEB573D7-D2EB-42E9-8069-FBCA42C7E423}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipmentModelCleaning" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="115">
   <si>
     <t>Speed Vacs</t>
   </si>
@@ -315,24 +315,15 @@
     <t>&lt;1.5 years</t>
   </si>
   <si>
-    <t>Functional equipment, Opportunity for AMC</t>
-  </si>
-  <si>
     <t>&gt; n years</t>
   </si>
   <si>
     <t>&gt;1.5 years</t>
   </si>
   <si>
-    <t>Depending on the product category life, buyback or opportunity for AMC</t>
-  </si>
-  <si>
     <t>&gt;n</t>
   </si>
   <si>
-    <t>not necessarily functional, opportunity for buy-back</t>
-  </si>
-  <si>
     <t>&lt;n</t>
   </si>
   <si>
@@ -342,9 +333,6 @@
     <t>&gt;1.5</t>
   </si>
   <si>
-    <t>Functional equipment, Opportunity for AMC/ Service</t>
-  </si>
-  <si>
     <t>Life of the products</t>
   </si>
   <si>
@@ -378,28 +366,10 @@
     <t>&gt;n years</t>
   </si>
   <si>
-    <t>Depending on the product category life, buyback or opportunity for Service</t>
-  </si>
-  <si>
-    <t>Functional equipment, Opportunity for Service</t>
-  </si>
-  <si>
-    <t>Possibility this is being servied by some other</t>
-  </si>
-  <si>
     <t>Purchase date is less than 1.5 years, no action needed otherwise Service opportunity</t>
   </si>
   <si>
-    <t>Depending on the Install date opportunity for Service or no action needed</t>
-  </si>
-  <si>
     <t>Contract</t>
-  </si>
-  <si>
-    <t>No action needed</t>
-  </si>
-  <si>
-    <t>Opportunity for service</t>
   </si>
   <si>
     <t>"ULT Freezers":"ULT Freezer",'CO2 Incubators':"CO2 Incubator","chiller":"Chiller", "Oven":"Ovens",
@@ -408,6 +378,15 @@
                "Stirrer":"Stirrers and Hot Pla","Super Sp Centrifuge":"Superspeed Centrifug","Ultra Spd Centrifuge":"Ultra Speed Centrifu"
               ,"WATER Purification":"Water Purification","WaterBaths":"Water Bath", "pH meter": "ph meter","water Purification":"Water Purification",
             "ph meter":"PH meter","Shakers":"Shaker"</t>
+  </si>
+  <si>
+    <t>AMC</t>
+  </si>
+  <si>
+    <t>Buy Back</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AMC</t>
   </si>
 </sst>
 </file>
@@ -522,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -556,16 +535,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,16 +861,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F8590F-11D2-4615-B6DE-CB103865A803}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="123.77734375" customWidth="1"/>
+    <col min="1" max="1" width="123.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>121</v>
+    <row r="1" spans="1:1" ht="124.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -902,18 +880,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9492FDB1-560B-414D-986C-BC0BA5A5BCA3}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -921,7 +899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -929,7 +907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -937,7 +915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -945,7 +923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -953,7 +931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -961,7 +939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -969,7 +947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -977,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -985,7 +963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -993,7 +971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1001,7 +979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1009,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1017,7 +995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -1025,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1033,7 +1011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1049,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -1057,7 +1035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -1065,7 +1043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -1073,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -1081,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -1089,7 +1067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
@@ -1097,7 +1075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
@@ -1105,7 +1083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -1113,7 +1091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
@@ -1121,7 +1099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
@@ -1129,7 +1107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
@@ -1137,7 +1115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
@@ -1145,7 +1123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
@@ -1153,7 +1131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
@@ -1161,7 +1139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>26</v>
       </c>
@@ -1169,7 +1147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>27</v>
       </c>
@@ -1177,13 +1155,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B34" s="8"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>41</v>
       </c>
@@ -1191,7 +1169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>29</v>
       </c>
@@ -1199,7 +1177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>30</v>
       </c>
@@ -1207,7 +1185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>31</v>
       </c>
@@ -1215,7 +1193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -1223,7 +1201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>38</v>
       </c>
@@ -1231,14 +1209,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="16">
         <v>4</v>
       </c>
-      <c r="C41" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1253,13 +1230,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -1267,7 +1244,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1275,7 +1252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1283,7 +1260,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1291,7 +1268,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1299,7 +1276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1307,7 +1284,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1315,7 +1292,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -1323,7 +1300,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1331,7 +1308,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1339,7 +1316,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -1347,7 +1324,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1355,7 +1332,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1363,7 +1340,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -1371,7 +1348,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1379,7 +1356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -1387,7 +1364,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1395,7 +1372,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1403,7 +1380,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1411,7 +1388,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1419,7 +1396,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1427,7 +1404,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -1435,7 +1412,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -1443,7 +1420,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -1451,7 +1428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1459,7 +1436,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -1467,7 +1444,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1475,7 +1452,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -1483,7 +1460,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1491,7 +1468,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -1499,7 +1476,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -1507,7 +1484,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -1515,7 +1492,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -1523,7 +1500,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1531,7 +1508,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1539,7 +1516,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -1557,28 +1534,28 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -1589,7 +1566,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -1600,146 +1577,146 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="14" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
         <v>91</v>
       </c>
       <c r="E6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D13" t="s">
         <v>103</v>
       </c>
-      <c r="D9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>106</v>
-      </c>
-      <c r="D11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>110</v>
       </c>
       <c r="C16" t="s">
         <v>86</v>
@@ -1748,7 +1725,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>90</v>
       </c>
@@ -1756,135 +1733,135 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
         <v>107</v>
       </c>
-      <c r="E21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
         <v>107</v>
       </c>
-      <c r="E22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
         <v>102</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D26" t="s">
         <v>103</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="15" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>97</v>
+      <c r="C28" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1900,18 +1877,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB46437C-3CBF-413D-986C-0F50BA6D1D9D}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
@@ -1919,7 +1896,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1927,7 +1904,7 @@
         <v>13657.883848157893</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1935,7 +1912,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1943,7 +1920,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1951,7 +1928,7 @@
         <v>4235.5847022379603</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1959,7 +1936,7 @@
         <v>3389.8015550559358</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1967,7 +1944,7 @@
         <v>15386.592727823872</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1975,7 +1952,7 @@
         <v>2669.520649047347</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1983,7 +1960,7 @@
         <v>1370.8748591304347</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1991,7 +1968,7 @@
         <v>31425</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1999,7 +1976,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -2007,7 +1984,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -2015,7 +1992,7 @@
         <v>412.98982907608695</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +2000,7 @@
         <v>6885.2766861824775</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -2031,7 +2008,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -2039,7 +2016,7 @@
         <v>223.18492223367693</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -2047,7 +2024,7 @@
         <v>7158.790612409638</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -2055,7 +2032,7 @@
         <v>18885</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -2063,7 +2040,7 @@
         <v>1728.88329</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -2071,7 +2048,7 @@
         <v>6285</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -2079,7 +2056,7 @@
         <v>6959.2197840735698</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -2087,7 +2064,7 @@
         <v>1514.2364480000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2095,7 +2072,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
@@ -2103,7 +2080,7 @@
         <v>6648.2653933078409</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -2111,7 +2088,7 @@
         <v>2248.7871740478217</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
@@ -2119,7 +2096,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
@@ -2127,7 +2104,7 @@
         <v>2386.8701298599999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
@@ -2135,7 +2112,7 @@
         <v>3059.3704404225355</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
@@ -2143,7 +2120,7 @@
         <v>4209.3160485714288</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2151,7 +2128,7 @@
         <v>18637.270689999998</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
@@ -2159,7 +2136,7 @@
         <v>2501.4634658968052</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>26</v>
       </c>
@@ -2167,7 +2144,7 @@
         <v>1003.809090731707</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>27</v>
       </c>
@@ -2175,7 +2152,7 @@
         <v>10451.80092</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -2183,7 +2160,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>29</v>
       </c>
@@ -2191,7 +2168,7 @@
         <v>3688.8898889743587</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>30</v>
       </c>
@@ -2200,7 +2177,7 @@
       </c>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>31</v>
       </c>
@@ -2208,7 +2185,7 @@
         <v>2959.9448639659367</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
@@ -2217,7 +2194,7 @@
       </c>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -2226,7 +2203,7 @@
       </c>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
@@ -2241,12 +2218,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE4562BD5F104C408DCB281F3087115D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13d39d8d82bb996147bf0575d1afcd8c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="42ac4810-e29a-4ebe-a165-a72c3d904beb" xmlns:ns4="200ca8b2-e61c-44f3-8b74-50066ea0f59e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="283193f0554a781f449f0177ab7ebaf6" ns3:_="" ns4:_="">
     <xsd:import namespace="42ac4810-e29a-4ebe-a165-a72c3d904beb"/>
@@ -2469,7 +2440,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2478,16 +2449,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7AAE611-9AD2-4365-BD75-6088F4339640}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{198C84B3-5392-4448-9D8C-DF977D7E9FD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2506,10 +2474,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF2FD92D-8244-4A45-8DF6-78EE91E56356}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7AAE611-9AD2-4365-BD75-6088F4339640}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>